--- a/database/imports/product_metas.xlsx
+++ b/database/imports/product_metas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Codes\PHP\Laravel\LaravelOcadmin\laraocadmin10\httpdocs\database\imports\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1577A63C-1BE7-47FA-9149-BB72B5851AEF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A99A465F-B399-4705-9B8B-6FE60D32133F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{69251A63-0B4A-4B8F-A84A-35F3F0E91F1D}"/>
   </bookViews>
@@ -71,9 +71,6 @@
     <t>Coffee Medium</t>
   </si>
   <si>
-    <t>zh_TW</t>
-  </si>
-  <si>
     <t>可樂大</t>
   </si>
   <si>
@@ -149,6 +146,9 @@
   <si>
     <t>is to import =&gt;</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zh_Hant</t>
   </si>
 </sst>
 </file>
@@ -529,10 +529,10 @@
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" t="s">
         <v>0</v>
@@ -549,19 +549,19 @@
     </row>
     <row r="2" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -612,7 +612,7 @@
         <v>5</v>
       </c>
       <c r="F5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -674,13 +674,13 @@
         <v>1</v>
       </c>
       <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>5</v>
+      </c>
+      <c r="F9" t="s">
         <v>11</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -691,13 +691,13 @@
         <v>2</v>
       </c>
       <c r="D10" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E10" t="s">
         <v>5</v>
       </c>
       <c r="F10" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -708,13 +708,13 @@
         <v>3</v>
       </c>
       <c r="D11" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E11" t="s">
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -725,13 +725,13 @@
         <v>4</v>
       </c>
       <c r="D12" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E12" t="s">
         <v>5</v>
       </c>
       <c r="F12" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -742,13 +742,13 @@
         <v>5</v>
       </c>
       <c r="D13" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E13" t="s">
         <v>5</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -759,13 +759,13 @@
         <v>6</v>
       </c>
       <c r="D14" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E14" t="s">
         <v>5</v>
       </c>
       <c r="F14" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -779,10 +779,10 @@
         <v>4</v>
       </c>
       <c r="E15" t="s">
+        <v>17</v>
+      </c>
+      <c r="F15" t="s">
         <v>18</v>
-      </c>
-      <c r="F15" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -796,10 +796,10 @@
         <v>4</v>
       </c>
       <c r="E16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -813,10 +813,10 @@
         <v>4</v>
       </c>
       <c r="E17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -830,10 +830,10 @@
         <v>4</v>
       </c>
       <c r="E18" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="19" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -847,10 +847,10 @@
         <v>4</v>
       </c>
       <c r="E19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -864,10 +864,10 @@
         <v>4</v>
       </c>
       <c r="E20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="21" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -878,13 +878,13 @@
         <v>1</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E21" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="22" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -895,13 +895,13 @@
         <v>2</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E22" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F22" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -912,13 +912,13 @@
         <v>3</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E23" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F23" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="24" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -929,13 +929,13 @@
         <v>4</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="25" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -946,13 +946,13 @@
         <v>5</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E25" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F25" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="26" spans="2:6" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -963,13 +963,13 @@
         <v>6</v>
       </c>
       <c r="D26" t="s">
-        <v>11</v>
+        <v>35</v>
       </c>
       <c r="E26" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F26" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
   </sheetData>
